--- a/biology/Botanique/Pachycereus_pringlei/Pachycereus_pringlei.xlsx
+++ b/biology/Botanique/Pachycereus_pringlei/Pachycereus_pringlei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pachycereus pringlei est une espèce de plantes à fleurs de la famille des Cactaceae (les cactus) et du genre Pachycereus.
 Elle est dédiée à Cyrus Pringle (1838-1911), un botaniste américain.
 Elle est originaire du nord-ouest du Mexique (États de Basse-Californie et du Sonora).
 Sur ses terrains d'origine, il a souvent été détruit pour laisser place à des cultures. Ces destructions sont difficiles, les cactus doivent d'abord être brûlés.
 Le fruit du cactus est comestible et consommé par la tribu des indiens Seri dans l'État du Sonora.
-C'est l'espèce qui détient le record du cactus le plus haut avec 19,2 m[1].
+C'est l'espèce qui détient le record du cactus le plus haut avec 19,2 m.
 Il présente un tronc pouvant atteindre 1 m de diamètre avec plusieurs branches. Il ressemble à l'espèce Carnegiea gigantea mais il en diffère par des cotes moins nombreuses, des branches plus nombreuses, la forme des fleurs et des fruits.
 Les fleurs blanches en forme d'entonnoir de 8 cm de long n'apparaissent que sur les sujets adultes.
 C'est une plante trimonoïque.
@@ -519,11 +531,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Pachycereus pringlei (S.Watson) Britton &amp; Rose[2].
-L'espèce a été initialement classée dans le genre Cereus sous le basionyme Cereus pringlei S.Watson[2].
-Pachycereus pringlei a pour synonymes[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Pachycereus pringlei (S.Watson) Britton &amp; Rose.
+L'espèce a été initialement classée dans le genre Cereus sous le basionyme Cereus pringlei S.Watson.
+Pachycereus pringlei a pour synonymes :
 Cereus calvus Engelm.
 Cereus calvus Engelm. ex J.M.Coult.
 Cereus pringlei var. calvus M.E.Jones
